--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575F69E-5341-4A92-A700-CB8AE354FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604C67A-E41D-468B-8743-1EDB9E3CE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="2100" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="29220" yWindow="0" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Vendors</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Euclid Managers</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Custom Bill</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Pitney Bowes Purchase Power</t>
+  </si>
+  <si>
+    <t>UPS</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,54 +449,35 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4181.8599999999997</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>548.78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>278.62</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604C67A-E41D-468B-8743-1EDB9E3CE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE218259-2474-42F4-B8D1-570C79D7F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="0" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="1905" yWindow="3765" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Vendors</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>UPS</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +482,12 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>12.43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE218259-2474-42F4-B8D1-570C79D7F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530F46D-A0A1-41E2-BC8D-9351C11C0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="3765" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="9315" yWindow="3045" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Vendors</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>UPS</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,12 +479,6 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>12.43</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530F46D-A0A1-41E2-BC8D-9351C11C0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABC3BA9-37FC-4022-B8AB-45D180129EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="3045" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="6525" yWindow="1725" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Vendors</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>UPS</t>
+  </si>
+  <si>
+    <t>Hinckley Springs</t>
+  </si>
+  <si>
+    <t>The Tax Shoppe Inc.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Need Envelope</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +447,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,29 +466,48 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABC3BA9-37FC-4022-B8AB-45D180129EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8EE95-3307-4194-BAC1-A1CBC62B6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="1725" windowWidth="19035" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Vendors</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Need Envelope</t>
+  </si>
+  <si>
+    <t>Nicor Gas</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F5:F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,19 +498,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8EE95-3307-4194-BAC1-A1CBC62B6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404A0FD-57D4-4A15-84EB-277C3713A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Vendors</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Nicor Gas</t>
+  </si>
+  <si>
+    <t>Turek &amp; Sons, LLC</t>
+  </si>
+  <si>
+    <t>Lakeshore Recyling</t>
+  </si>
+  <si>
+    <t>Garlock Chicago Inc.</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +459,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,50 +481,74 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>33026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404A0FD-57D4-4A15-84EB-277C3713A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED04E597-217B-4BE9-AB86-6836C77CEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="5985" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Garlock Chicago Inc.</t>
+  </si>
+  <si>
+    <t>HUB International Midwest Limited</t>
+  </si>
+  <si>
+    <t>Salvi Salvi &amp; Wifler</t>
+  </si>
+  <si>
+    <t>Hernandez Lawn Service</t>
+  </si>
+  <si>
+    <t>ComCast Business</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33026</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -492,25 +504,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>471.04</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -518,37 +533,72 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>148.16999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED04E597-217B-4BE9-AB86-6836C77CEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2013867-BA3F-4440-8AD7-1274554D5CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ComCast Business</t>
+  </si>
+  <si>
+    <t>00007RW518363</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33085</v>
+        <v>33098</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -506,12 +509,6 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>471.04</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -564,12 +561,6 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>148.16999999999999</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -600,6 +591,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>20.100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2013867-BA3F-4440-8AD7-1274554D5CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F628AB-5A6D-4C77-9C12-A389CEBDE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>ComCast Business</t>
-  </si>
-  <si>
-    <t>00007RW518363</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +516,12 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>278.62</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -532,6 +535,9 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
@@ -591,15 +597,6 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>20.100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F628AB-5A6D-4C77-9C12-A389CEBDE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B837F2A-33F0-4F84-A75E-E89C7A65C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33098</v>
+        <v>33119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -516,12 +516,6 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>278.62</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -534,9 +528,6 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B837F2A-33F0-4F84-A75E-E89C7A65C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9686EC0-F560-41DD-AFA4-61A5770666E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="9345" yWindow="3360" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33119</v>
+        <v>33121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -506,6 +506,12 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>471.04</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -537,6 +543,12 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>50.43</v>
+      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
@@ -562,6 +574,12 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>187.45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9686EC0-F560-41DD-AFA4-61A5770666E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E0738-402E-40DA-AC05-53489E95A61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="3360" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="390" yWindow="1275" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33121</v>
+        <v>33133</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -506,12 +506,6 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>471.04</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -543,12 +537,6 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>50.43</v>
-      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
@@ -575,16 +563,16 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>187.45</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>343.65</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E0738-402E-40DA-AC05-53489E95A61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD1566-ADB9-4FE2-A716-A9BA208BEA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1275" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="3000" yWindow="3645" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ComCast Business</t>
+  </si>
+  <si>
+    <t>Safety Check Inc.</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33133</v>
+        <v>33139</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -529,6 +532,15 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6649</v>
+      </c>
+      <c r="D7">
+        <v>1230</v>
+      </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
@@ -558,6 +570,12 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>145.80000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -566,26 +584,29 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13">
+        <v>13727</v>
+      </c>
       <c r="D13">
-        <v>343.65</v>
+        <v>2205</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -593,6 +614,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD1566-ADB9-4FE2-A716-A9BA208BEA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AA60C-3024-459F-85B7-8772550FEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="3645" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>ComCast Business</t>
-  </si>
-  <si>
-    <t>Safety Check Inc.</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,29 +581,20 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>13727</v>
-      </c>
-      <c r="D13">
-        <v>2205</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -614,14 +602,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AA60C-3024-459F-85B7-8772550FEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB6306-956B-4257-83D3-E30350862CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3645" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="3600" yWindow="2670" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>ComCast Business</t>
+  </si>
+  <si>
+    <t>LR470494</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CNA Insurance</t>
   </si>
 </sst>
 </file>
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +503,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33139</v>
+        <v>33147</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -504,39 +513,33 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>39755.800000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>6649</v>
-      </c>
-      <c r="D7">
-        <v>1230</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -544,7 +547,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -552,7 +555,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -560,41 +563,44 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
       <c r="D11">
-        <v>145.80000000000001</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -602,7 +608,21 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>45.17</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB6306-956B-4257-83D3-E30350862CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D716A5E8-5CEF-4B29-B05E-F3B0766ED67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2670" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>ComCast Business</t>
-  </si>
-  <si>
-    <t>LR470494</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>CNA Insurance</t>
@@ -467,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33147</v>
+        <v>33167</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -513,13 +507,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>39755.800000000003</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -531,6 +519,12 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>376.32</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -573,15 +567,6 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>385</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -614,15 +599,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>45.17</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D716A5E8-5CEF-4B29-B05E-F3B0766ED67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50B276-B8C9-4801-80A5-9996A728036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="8475" yWindow="3195" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33167</v>
+        <v>33191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -514,16 +514,16 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>474.8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>376.32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50B276-B8C9-4801-80A5-9996A728036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2FADC7-B3FC-4BBC-8F65-D314FEFA1034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="3195" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Vendors</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>CNA Insurance</t>
+  </si>
+  <si>
+    <t>Paychex Inc.</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33191</v>
+        <v>33202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -514,12 +517,6 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>474.8</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -543,6 +540,15 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>6697</v>
+      </c>
+      <c r="D8">
+        <v>1207.5</v>
+      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
@@ -572,35 +578,61 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>258.81</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2023102600</v>
+      </c>
+      <c r="D13">
+        <v>770.71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2FADC7-B3FC-4BBC-8F65-D314FEFA1034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B350E-31E6-4379-8D4F-1B050B69E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Vendors</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Paychex Inc.</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Citibusiness Card</t>
+  </si>
+  <si>
+    <t>Chase Cardmember Service 7314</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33202</v>
+        <v>33219</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -510,60 +519,51 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>6697</v>
-      </c>
-      <c r="D8">
-        <v>1207.5</v>
-      </c>
-      <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -571,69 +571,75 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>258.81</v>
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>2023102600</v>
-      </c>
-      <c r="D13">
-        <v>770.71</v>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B350E-31E6-4379-8D4F-1B050B69E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9475CB5-3993-4C97-B65A-B991C2C54334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="29610" yWindow="0" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Vendors</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Chase Cardmember Service 7314</t>
+  </si>
+  <si>
+    <t>AR JAY Printing Inc.</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,69 +512,66 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33219</v>
+        <v>33261</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4181.8599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -587,7 +587,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>37.78</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -595,40 +601,40 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -636,10 +642,15 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9475CB5-3993-4C97-B65A-B991C2C54334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43983FB4-E564-4177-A1F2-B7ACED441FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="0" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Vendors</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33261</v>
+        <v>33272</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -527,12 +527,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>4181.8599999999997</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -553,6 +547,12 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>474.8</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -588,12 +588,6 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>37.78</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43983FB4-E564-4177-A1F2-B7ACED441FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E377ACF-6089-46E5-8B37-533D79027521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -119,10 +119,10 @@
     <t>Citibusiness Card</t>
   </si>
   <si>
-    <t>Chase Cardmember Service 7314</t>
-  </si>
-  <si>
     <t>AR JAY Printing Inc.</t>
+  </si>
+  <si>
+    <t>Chase Cardmember Service</t>
   </si>
 </sst>
 </file>
@@ -512,12 +512,12 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33272</v>
+        <v>33290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -547,12 +547,6 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>474.8</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -580,6 +574,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>6762</v>
+      </c>
+      <c r="D12">
+        <v>1893</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E377ACF-6089-46E5-8B37-533D79027521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E778578C-C968-43B4-928E-F6536BAF166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Vendors</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Chase Cardmember Service</t>
+  </si>
+  <si>
+    <t>00007RW</t>
+  </si>
+  <si>
+    <t>00007RW518493</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33290</v>
+        <v>33308</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -542,6 +548,12 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>19884.900000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -575,15 +587,6 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>6762</v>
-      </c>
-      <c r="D12">
-        <v>1893</v>
-      </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -614,22 +617,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -637,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -645,9 +648,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>10.01</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E778578C-C968-43B4-928E-F6536BAF166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F4FD8-9018-4386-B5DA-BF037936FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Vendors</t>
   </si>
@@ -128,7 +128,10 @@
     <t>00007RW</t>
   </si>
   <si>
-    <t>00007RW518493</t>
+    <t>bill_entry_and_payment.py</t>
+  </si>
+  <si>
+    <t>00007RW518503</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,10 +521,13 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33335</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -529,53 +535,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4670.8999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>19884.900000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>409.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -583,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -591,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -599,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -607,12 +619,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -656,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>10.01</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F4FD8-9018-4386-B5DA-BF037936FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D1593-D17F-4C1E-B2EB-E8C8B97E490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Vendors</t>
   </si>
@@ -131,7 +131,7 @@
     <t>bill_entry_and_payment.py</t>
   </si>
   <si>
-    <t>00007RW518503</t>
+    <t>00007RW518513</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33335</v>
+        <v>33351</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -539,12 +539,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>4670.8999999999996</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -565,17 +559,17 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>504.41</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>409.98</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -607,6 +601,12 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>12.49</v>
+      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -615,6 +615,15 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>3462197</v>
+      </c>
+      <c r="D14">
+        <v>219</v>
+      </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
@@ -638,6 +647,15 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>3106462812</v>
+      </c>
+      <c r="D18">
+        <v>187.45</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -671,7 +689,7 @@
         <v>31</v>
       </c>
       <c r="D22">
-        <v>10.01</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D1593-D17F-4C1E-B2EB-E8C8B97E490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB206D3-2EFF-42D7-BE48-54CAEAAA0CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="5790" yWindow="2865" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Vendors</t>
   </si>
@@ -131,7 +131,7 @@
     <t>bill_entry_and_payment.py</t>
   </si>
   <si>
-    <t>00007RW518513</t>
+    <t>LRR5570686</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33351</v>
+        <v>33889</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -559,12 +559,6 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>504.41</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -601,12 +595,6 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>12.49</v>
-      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -615,15 +603,6 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>3462197</v>
-      </c>
-      <c r="D14">
-        <v>219</v>
-      </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
@@ -632,6 +611,15 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>385</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -647,15 +635,6 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>3106462812</v>
-      </c>
-      <c r="D18">
-        <v>187.45</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -681,15 +660,6 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>10.029999999999999</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB206D3-2EFF-42D7-BE48-54CAEAAA0CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2D096-3C41-48CA-8D69-86309D5F96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2865" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Vendors</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>bill_entry_and_payment.py</t>
-  </si>
-  <si>
-    <t>LRR5570686</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33889</v>
+        <v>33404</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -559,6 +556,12 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>504.2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -610,15 +613,6 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2D096-3C41-48CA-8D69-86309D5F96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF5EC2E-1E28-4E06-AF58-726447149CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33404</v>
+        <v>33427</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -556,12 +556,6 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>504.2</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -619,6 +613,10 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="I16">
+        <f>321.35+129.95</f>
+        <v>451.3</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -633,6 +631,12 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF5EC2E-1E28-4E06-AF58-726447149CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1836C8A9-6DF6-4AF6-A598-C2AF8ACA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33427</v>
+        <v>33453</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -613,6 +613,12 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>340.04</v>
+      </c>
       <c r="I16">
         <f>321.35+129.95</f>
         <v>451.3</v>
@@ -631,12 +637,6 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1836C8A9-6DF6-4AF6-A598-C2AF8ACA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7E047-73E1-44F0-B1D8-A4B4DA04663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Vendors</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>bill_entry_and_payment.py</t>
+  </si>
+  <si>
+    <t>00007RW518094</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,8 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33453</v>
+        <v>33494</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -551,6 +555,12 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>19884.900000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -613,15 +623,9 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>340.04</v>
-      </c>
       <c r="I16">
-        <f>321.35+129.95</f>
-        <v>451.3</v>
+        <f>222.9+192.89+236.19</f>
+        <v>651.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,6 +662,9 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7E047-73E1-44F0-B1D8-A4B4DA04663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396DB78-33F2-4C58-818F-E87FC80FD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="7485" yWindow="3270" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Vendors</t>
   </si>
@@ -131,7 +131,10 @@
     <t>bill_entry_and_payment.py</t>
   </si>
   <si>
-    <t>00007RW518094</t>
+    <t>00007RW518104</t>
+  </si>
+  <si>
+    <t>1631444 031424</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33494</v>
+        <v>33507</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -555,12 +558,6 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>19884.900000000001</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -581,6 +578,12 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>278.62</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -602,6 +605,15 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>51.91</v>
+      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -637,6 +649,12 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -663,8 +681,14 @@
       <c r="A22" t="s">
         <v>10</v>
       </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
       <c r="C22" t="s">
         <v>31</v>
+      </c>
+      <c r="D22">
+        <v>10.69</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396DB78-33F2-4C58-818F-E87FC80FD10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CC56F2-21C1-4766-B7E2-2C89731FEF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="3270" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Vendors</t>
   </si>
@@ -129,12 +129,6 @@
   </si>
   <si>
     <t>bill_entry_and_payment.py</t>
-  </si>
-  <si>
-    <t>00007RW518104</t>
-  </si>
-  <si>
-    <t>1631444 031424</t>
   </si>
 </sst>
 </file>
@@ -489,8 +483,8 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33507</v>
+        <v>33514</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -543,6 +537,12 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4670.8999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -578,12 +578,6 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>278.62</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -597,6 +591,15 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>6838</v>
+      </c>
+      <c r="D12">
+        <v>1512.5</v>
+      </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -605,15 +608,6 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>51.91</v>
-      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -649,12 +643,6 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -680,15 +668,6 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>10.69</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CC56F2-21C1-4766-B7E2-2C89731FEF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F6612-F9C2-4C66-973A-D8763C83D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="4560" yWindow="4680" windowWidth="23190" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Vendors</t>
   </si>
@@ -484,7 +484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33514</v>
+        <v>33557</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -537,12 +537,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>4670.8999999999996</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -558,6 +552,12 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>87836.9</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -591,15 +591,6 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>6838</v>
-      </c>
-      <c r="D12">
-        <v>1512.5</v>
-      </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -630,8 +621,8 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <f>222.9+192.89+236.19</f>
-        <v>651.98</v>
+        <f>156.05+175.85+262.61</f>
+        <v>594.51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F6612-F9C2-4C66-973A-D8763C83D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F59A5-CCC6-4E05-B689-3AFAAD931832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4680" windowWidth="23190" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="3735" yWindow="3285" windowWidth="23190" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33557</v>
+        <v>33573</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -552,12 +552,6 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>87836.9</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -577,6 +571,12 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>278.62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F59A5-CCC6-4E05-B689-3AFAAD931832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD2AF6-CBE7-46D4-B3F5-AEAB80ED902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3285" windowWidth="23190" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Vendors</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>bill_entry_and_payment.py</t>
+  </si>
+  <si>
+    <t>Pro Fastening Systems Inc.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -519,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33573</v>
+        <v>33622</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -537,6 +540,12 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4670.8999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -621,8 +630,8 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <f>156.05+175.85+262.61</f>
-        <v>594.51</v>
+        <f>105.4+106.06</f>
+        <v>211.46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,23 +643,35 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -658,9 +679,17 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD2AF6-CBE7-46D4-B3F5-AEAB80ED902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8C24A-026E-4085-A1D3-2BC72CBA815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Vendors</t>
   </si>
@@ -487,7 +487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="I1">
-        <v>33622</v>
+        <v>33712</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -540,12 +540,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>4670.8999999999996</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -584,9 +578,6 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>278.62</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -630,8 +621,8 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <f>105.4+106.06</f>
-        <v>211.46</v>
+        <f>43.98+12.16+43.98</f>
+        <v>100.12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,12 +634,6 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -661,12 +646,6 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8C24A-026E-4085-A1D3-2BC72CBA815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B731AB-6C7A-463F-8809-6CB5F50F2D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Vendors</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Bill Amount</t>
   </si>
   <si>
-    <t>Euclid Managers</t>
-  </si>
-  <si>
     <t>Custom Bill</t>
   </si>
   <si>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>Pro Fastening Systems Inc.</t>
+  </si>
+  <si>
+    <t>EM Benefits</t>
+  </si>
+  <si>
+    <t>00007RW518414</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,163 +516,175 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1">
-        <v>33712</v>
+        <v>33908</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>278.62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16">
-        <f>43.98+12.16+43.98</f>
-        <v>100.12</v>
+        <f>44.46+44.46+45.09</f>
+        <v>134.01</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>10.74</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B731AB-6C7A-463F-8809-6CB5F50F2D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF40BA-3C77-4B64-B933-6A1BBD648E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="2520" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>EM Benefits</t>
   </si>
   <si>
-    <t>00007RW518414</t>
+    <t>UFG Insurance</t>
   </si>
 </sst>
 </file>
@@ -486,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="I1">
-        <v>33908</v>
+        <v>33991</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -568,6 +568,12 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>311.08</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -578,12 +584,6 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>278.62</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -605,6 +605,12 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>15.49</v>
+      </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
@@ -672,18 +678,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23">
-        <v>10.74</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF40BA-3C77-4B64-B933-6A1BBD648E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C1DF0-054B-48B0-8185-26F6E07DA177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Vendors</t>
   </si>
@@ -489,8 +489,8 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="I1">
-        <v>33991</v>
+        <v>34000</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -568,12 +568,6 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>311.08</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -605,12 +599,6 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>15.49</v>
-      </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
@@ -679,6 +667,12 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>12300</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
